--- a/Scenario/Scenario-Glavni tok(Uposlenik).xlsx
+++ b/Scenario/Scenario-Glavni tok(Uposlenik).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>GOST/UPOSLENIK USTANOVE</t>
   </si>
@@ -27,15 +27,6 @@
     <t>ADMINISTRATOR</t>
   </si>
   <si>
-    <t>i dodjela pristupa</t>
-  </si>
-  <si>
-    <t>sistema o tome</t>
-  </si>
-  <si>
-    <t>ustanove</t>
-  </si>
-  <si>
     <t>ili RFID karticu</t>
   </si>
   <si>
@@ -54,9 +45,6 @@
     <t>2. Trazenje prisupta ustanovi</t>
   </si>
   <si>
-    <t>3. Zahtjev za pristupnim podacima</t>
-  </si>
-  <si>
     <t>4. Unos pristupnih podataka</t>
   </si>
   <si>
@@ -66,10 +54,37 @@
     <t>6. Izvjestaj o uspjesnoj verifikaciji</t>
   </si>
   <si>
-    <t>7. Napustanje ustanove i obavijest</t>
-  </si>
-  <si>
-    <t>8. Zaprimanje obavijesti o napustanju</t>
+    <t>6. Potvrda verifikacije i dodjela</t>
+  </si>
+  <si>
+    <t>pristupa</t>
+  </si>
+  <si>
+    <t>i dodjeli pristupa</t>
+  </si>
+  <si>
+    <t>7. Ulazak(boravak) u ustanovu(i)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Napustanje ustanove , slanje  </t>
+  </si>
+  <si>
+    <t>informacija putem interfacea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Kreiranje izvjestaja o </t>
+  </si>
+  <si>
+    <t>napustanju objekta</t>
+  </si>
+  <si>
+    <t>10. Zaprimanje izvjestaja</t>
+  </si>
+  <si>
+    <t>o napustanju objekta</t>
+  </si>
+  <si>
+    <t>3. Salje zahtjev za pristupnim podacima</t>
   </si>
 </sst>
 </file>
@@ -178,43 +193,43 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,370 +527,359 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="17" max="17" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="7" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="9"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="7" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="13"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="10" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="2" t="s">
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="3"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2" t="s">
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2" t="s">
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="3"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="6"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="2"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="3"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="6"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="2"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="3"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="6"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="2"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="3"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="6"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="10"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="2"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="3"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="13"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="6"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:F2"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="D14:F14"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="D5:F5"/>
@@ -892,22 +896,43 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Scenario/Scenario-Glavni tok(Uposlenik).xlsx
+++ b/Scenario/Scenario-Glavni tok(Uposlenik).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>GOST/UPOSLENIK USTANOVE</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>3. Salje zahtjev za pristupnim podacima</t>
+  </si>
+  <si>
+    <t>8. Zaprimanje izvjestaja o ulasku</t>
+  </si>
+  <si>
+    <t>u ustanovu</t>
   </si>
 </sst>
 </file>
@@ -194,6 +200,24 @@
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -210,24 +234,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -527,7 +533,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -539,73 +545,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="2" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="5" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="11" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -615,17 +621,17 @@
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="8" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="10"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -635,235 +641,292 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="11" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="11" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="8" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="8" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="11" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="13"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="8" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="13"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="11" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="11" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="13"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="8" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="8" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="13"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="10"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="13"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="10"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="13"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="10"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="13"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="10"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="13"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="7"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="10"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="G21:I21"/>
@@ -880,59 +943,6 @@
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="D14:F14"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:F2"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Scenario/Scenario-Glavni tok(Uposlenik).xlsx
+++ b/Scenario/Scenario-Glavni tok(Uposlenik).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>GOST/UPOSLENIK USTANOVE</t>
   </si>
@@ -51,9 +51,6 @@
     <t>5. Verifikacija unesenih podataka</t>
   </si>
   <si>
-    <t>6. Izvjestaj o uspjesnoj verifikaciji</t>
-  </si>
-  <si>
     <t>6. Potvrda verifikacije i dodjela</t>
   </si>
   <si>
@@ -63,34 +60,31 @@
     <t>i dodjeli pristupa</t>
   </si>
   <si>
-    <t>7. Ulazak(boravak) u ustanovu(i)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8. Napustanje ustanove , slanje  </t>
-  </si>
-  <si>
     <t>informacija putem interfacea</t>
   </si>
   <si>
-    <t xml:space="preserve">9. Kreiranje izvjestaja o </t>
-  </si>
-  <si>
     <t>napustanju objekta</t>
   </si>
   <si>
-    <t>10. Zaprimanje izvjestaja</t>
-  </si>
-  <si>
     <t>o napustanju objekta</t>
   </si>
   <si>
     <t>3. Salje zahtjev za pristupnim podacima</t>
   </si>
   <si>
-    <t>8. Zaprimanje izvjestaja o ulasku</t>
-  </si>
-  <si>
-    <t>u ustanovu</t>
+    <t>7. Izvjestaj o uspjesnoj verifikaciji</t>
+  </si>
+  <si>
+    <t>8. Ulazak(boravak) u ustanovu(i)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Napustanje ustanove , slanje  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10. Kreiranje izvjestaja o </t>
+  </si>
+  <si>
+    <t>11. Zaprimanje izvjestaja</t>
   </si>
 </sst>
 </file>
@@ -200,6 +194,24 @@
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -216,24 +228,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -533,7 +527,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -545,73 +539,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="8" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="8" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="10"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="8" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="11" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="13"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -621,17 +615,17 @@
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="2" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="4"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -641,276 +635,251 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="5" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="5" t="s">
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="5" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="5" t="s">
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="4"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="7"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="4"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="7"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="4"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="7"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="4"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="7"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="4"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="10"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="7"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="13"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="4"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:F2"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="D14:F14"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="D5:F5"/>
@@ -927,22 +896,43 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
